--- a/state_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
+++ b/state_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U219"/>
+  <dimension ref="A1:U240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,10 +570,10 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.75250343487765</v>
+        <v>1.79563556661217</v>
       </c>
       <c r="H2" t="n">
-        <v>5.60264082998351</v>
+        <v>7.37105823109917</v>
       </c>
       <c r="I2" t="n">
         <v>4.505</v>
@@ -651,7 +651,7 @@
         <v>0.022</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0423362772079646</v>
+        <v>0.0423394610686695</v>
       </c>
       <c r="H3" t="n">
         <v>0.868</v>
@@ -732,7 +732,7 @@
         <v>0.022</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0423362772079646</v>
+        <v>0.0423394610686695</v>
       </c>
       <c r="H4" t="n">
         <v>0.868</v>
@@ -1153,7 +1153,7 @@
         <v>0.05583</v>
       </c>
       <c r="G9" t="n">
-        <v>0.216250297974325</v>
+        <v>0.216260199505006</v>
       </c>
       <c r="H9" t="n">
         <v>2.44538715684623</v>
@@ -1234,7 +1234,7 @@
         <v>0.05583</v>
       </c>
       <c r="G10" t="n">
-        <v>0.216250297974325</v>
+        <v>0.216260199505006</v>
       </c>
       <c r="H10" t="n">
         <v>2.44538715684623</v>
@@ -1315,7 +1315,7 @@
         <v>0.456</v>
       </c>
       <c r="G11" t="n">
-        <v>0.616065653800643</v>
+        <v>0.616081097318943</v>
       </c>
       <c r="H11" t="n">
         <v>2.678</v>
@@ -1396,7 +1396,7 @@
         <v>0.456</v>
       </c>
       <c r="G12" t="n">
-        <v>0.616065653800643</v>
+        <v>0.616081097318943</v>
       </c>
       <c r="H12" t="n">
         <v>2.678</v>
@@ -1473,7 +1473,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>1.01289134679639</v>
+        <v>1.01286760405055</v>
       </c>
       <c r="H13" t="n">
         <v>8.172000000000001</v>
@@ -1550,7 +1550,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01289134679639</v>
+        <v>1.01286760405055</v>
       </c>
       <c r="H14" t="n">
         <v>8.172000000000001</v>
@@ -1781,7 +1781,7 @@
         <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0945011641340659</v>
+        <v>0.09450266532365791</v>
       </c>
       <c r="H17" t="n">
         <v>0.861</v>
@@ -1858,7 +1858,7 @@
         <v>0.045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0945011641340659</v>
+        <v>0.09450266532365791</v>
       </c>
       <c r="H18" t="n">
         <v>0.861</v>
@@ -1939,7 +1939,7 @@
         <v>3.25</v>
       </c>
       <c r="G19" t="n">
-        <v>9.88181132075472</v>
+        <v>9.884830188679249</v>
       </c>
       <c r="H19" t="n">
         <v>85</v>
@@ -2020,10 +2020,10 @@
         <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75029397279031</v>
+        <v>1.79141995886277</v>
       </c>
       <c r="H20" t="n">
-        <v>5.60264082998351</v>
+        <v>7.37105823109917</v>
       </c>
       <c r="I20" t="n">
         <v>4.415</v>
@@ -2101,7 +2101,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0404494847551344</v>
+        <v>0.0404526686158393</v>
       </c>
       <c r="H21" t="n">
         <v>0.868</v>
@@ -2182,7 +2182,7 @@
         <v>0.02</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0404494847551344</v>
+        <v>0.0404526686158393</v>
       </c>
       <c r="H22" t="n">
         <v>0.868</v>
@@ -2603,7 +2603,7 @@
         <v>0.07201</v>
       </c>
       <c r="G27" t="n">
-        <v>0.220275550980739</v>
+        <v>0.220285225986775</v>
       </c>
       <c r="H27" t="n">
         <v>2.44538715684623</v>
@@ -2684,7 +2684,7 @@
         <v>0.07201</v>
       </c>
       <c r="G28" t="n">
-        <v>0.220275550980739</v>
+        <v>0.220285225986775</v>
       </c>
       <c r="H28" t="n">
         <v>2.44538715684623</v>
@@ -2765,7 +2765,7 @@
         <v>0.3735</v>
       </c>
       <c r="G29" t="n">
-        <v>0.52008324327443</v>
+        <v>0.520095665234802</v>
       </c>
       <c r="H29" t="n">
         <v>2.678</v>
@@ -2846,7 +2846,7 @@
         <v>0.3735</v>
       </c>
       <c r="G30" t="n">
-        <v>0.52008324327443</v>
+        <v>0.520095665234802</v>
       </c>
       <c r="H30" t="n">
         <v>2.678</v>
@@ -2923,7 +2923,7 @@
         <v>0.595</v>
       </c>
       <c r="G31" t="n">
-        <v>1.01898113207547</v>
+        <v>1.01896981132075</v>
       </c>
       <c r="H31" t="n">
         <v>8.172000000000001</v>
@@ -3000,7 +3000,7 @@
         <v>0.595</v>
       </c>
       <c r="G32" t="n">
-        <v>1.01898113207547</v>
+        <v>1.01896981132075</v>
       </c>
       <c r="H32" t="n">
         <v>8.172000000000001</v>
@@ -3231,7 +3231,7 @@
         <v>0.043</v>
       </c>
       <c r="G35" t="n">
-        <v>0.08912380564349991</v>
+        <v>0.0891253068330919</v>
       </c>
       <c r="H35" t="n">
         <v>0.861</v>
@@ -3308,7 +3308,7 @@
         <v>0.043</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08912380564349991</v>
+        <v>0.0891253068330919</v>
       </c>
       <c r="H36" t="n">
         <v>0.861</v>
@@ -3389,7 +3389,7 @@
         <v>2.6</v>
       </c>
       <c r="G37" t="n">
-        <v>9.84566037735849</v>
+        <v>9.848679245283019</v>
       </c>
       <c r="H37" t="n">
         <v>85</v>
@@ -3470,10 +3470,10 @@
         <v>1.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1.85405868511074</v>
+        <v>1.89335684957998</v>
       </c>
       <c r="H38" t="n">
-        <v>5.60264082998351</v>
+        <v>7.37105823109917</v>
       </c>
       <c r="I38" t="n">
         <v>4.325</v>
@@ -3551,7 +3551,7 @@
         <v>0.0145</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0207646909289665</v>
+        <v>0.020767704225705</v>
       </c>
       <c r="H39" t="n">
         <v>0.07000000000000001</v>
@@ -3632,7 +3632,7 @@
         <v>0.0145</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0207646909289665</v>
+        <v>0.020767704225705</v>
       </c>
       <c r="H40" t="n">
         <v>0.07000000000000001</v>
@@ -4053,7 +4053,7 @@
         <v>0.03101</v>
       </c>
       <c r="G45" t="n">
-        <v>0.131134347497816</v>
+        <v>0.131143485003517</v>
       </c>
       <c r="H45" t="n">
         <v>1.66143790437822</v>
@@ -4134,7 +4134,7 @@
         <v>0.03101</v>
       </c>
       <c r="G46" t="n">
-        <v>0.131134347497816</v>
+        <v>0.131143485003517</v>
       </c>
       <c r="H46" t="n">
         <v>1.66143790437822</v>
@@ -4215,7 +4215,7 @@
         <v>0.2534</v>
       </c>
       <c r="G47" t="n">
-        <v>0.426405878403996</v>
+        <v>0.426416082157159</v>
       </c>
       <c r="H47" t="n">
         <v>2.678</v>
@@ -4296,7 +4296,7 @@
         <v>0.2534</v>
       </c>
       <c r="G48" t="n">
-        <v>0.426405878403996</v>
+        <v>0.426416082157159</v>
       </c>
       <c r="H48" t="n">
         <v>2.678</v>
@@ -4373,7 +4373,7 @@
         <v>0.4005</v>
       </c>
       <c r="G49" t="n">
-        <v>0.681089285714286</v>
+        <v>0.6808535714285709</v>
       </c>
       <c r="H49" t="n">
         <v>4.869</v>
@@ -4387,7 +4387,7 @@
         <v>0.059</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1772</v>
+        <v>1.1774</v>
       </c>
       <c r="N49" t="n">
         <v>1.9217</v>
@@ -4450,7 +4450,7 @@
         <v>0.4005</v>
       </c>
       <c r="G50" t="n">
-        <v>0.681089285714286</v>
+        <v>0.6808535714285709</v>
       </c>
       <c r="H50" t="n">
         <v>4.869</v>
@@ -4464,7 +4464,7 @@
         <v>0.059</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1772</v>
+        <v>1.1774</v>
       </c>
       <c r="N50" t="n">
         <v>1.9217</v>
@@ -4681,7 +4681,7 @@
         <v>0.034</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0962064589125981</v>
+        <v>0.09620787968131909</v>
       </c>
       <c r="H53" t="n">
         <v>1.516</v>
@@ -4758,7 +4758,7 @@
         <v>0.034</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0962064589125981</v>
+        <v>0.09620787968131909</v>
       </c>
       <c r="H54" t="n">
         <v>1.516</v>
@@ -4920,10 +4920,10 @@
         <v>1.85</v>
       </c>
       <c r="G56" t="n">
-        <v>2.0145645929672</v>
+        <v>2.05311585452291</v>
       </c>
       <c r="H56" t="n">
-        <v>5.60264082998351</v>
+        <v>7.37105823109917</v>
       </c>
       <c r="I56" t="n">
         <v>5.06</v>
@@ -5001,7 +5001,7 @@
         <v>0.0135</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0193072877934849</v>
+        <v>0.0193101971834394</v>
       </c>
       <c r="H57" t="n">
         <v>0.07000000000000001</v>
@@ -5082,7 +5082,7 @@
         <v>0.0135</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0193072877934849</v>
+        <v>0.0193101971834394</v>
       </c>
       <c r="H58" t="n">
         <v>0.07000000000000001</v>
@@ -5503,7 +5503,7 @@
         <v>0.01128</v>
       </c>
       <c r="G63" t="n">
-        <v>0.083900775298118</v>
+        <v>0.0839200181476335</v>
       </c>
       <c r="H63" t="n">
         <v>0.696065149019314</v>
@@ -5584,7 +5584,7 @@
         <v>0.01128</v>
       </c>
       <c r="G64" t="n">
-        <v>0.083900775298118</v>
+        <v>0.0839200181476335</v>
       </c>
       <c r="H64" t="n">
         <v>0.696065149019314</v>
@@ -5665,7 +5665,7 @@
         <v>0.21205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.345833776197927</v>
+        <v>0.345846420855197</v>
       </c>
       <c r="H65" t="n">
         <v>1.53</v>
@@ -5676,7 +5676,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0021</v>
+        <v>0.00229</v>
       </c>
       <c r="M65" t="n">
         <v>0.694</v>
@@ -5746,7 +5746,7 @@
         <v>0.21205</v>
       </c>
       <c r="G66" t="n">
-        <v>0.345833776197927</v>
+        <v>0.345846420855197</v>
       </c>
       <c r="H66" t="n">
         <v>1.53</v>
@@ -5757,7 +5757,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
-        <v>0.0021</v>
+        <v>0.00229</v>
       </c>
       <c r="M66" t="n">
         <v>0.694</v>
@@ -5820,13 +5820,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.3075</v>
+        <v>0.3073</v>
       </c>
       <c r="G67" t="n">
-        <v>0.495115386587197</v>
+        <v>0.494882215627167</v>
       </c>
       <c r="H67" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I67" t="n">
         <v>1.8896</v>
@@ -5834,13 +5834,13 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="M67" t="n">
         <v>0.91688</v>
       </c>
       <c r="N67" t="n">
-        <v>1.21096</v>
+        <v>1.21099</v>
       </c>
       <c r="O67" t="n">
         <v>1816385</v>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.3075</v>
+        <v>0.3073</v>
       </c>
       <c r="G68" t="n">
-        <v>0.495115386587197</v>
+        <v>0.494882215627167</v>
       </c>
       <c r="H68" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I68" t="n">
         <v>1.8896</v>
@@ -5911,13 +5911,13 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="M68" t="n">
         <v>0.91688</v>
       </c>
       <c r="N68" t="n">
-        <v>1.21096</v>
+        <v>1.21099</v>
       </c>
       <c r="O68" t="n">
         <v>1816385</v>
@@ -6131,7 +6131,7 @@
         <v>0.036</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0978200292949223</v>
+        <v>0.09782140107161839</v>
       </c>
       <c r="H71" t="n">
         <v>1.516</v>
@@ -6208,7 +6208,7 @@
         <v>0.036</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0978200292949223</v>
+        <v>0.09782140107161839</v>
       </c>
       <c r="H72" t="n">
         <v>1.516</v>
@@ -6447,7 +6447,7 @@
         <v>1.9</v>
       </c>
       <c r="G75" t="n">
-        <v>2.03720255777466</v>
+        <v>2.03729943288146</v>
       </c>
       <c r="H75" t="n">
         <v>7.4</v>
@@ -7104,10 +7104,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0036</v>
+        <v>0.00374</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0518943957100331</v>
+        <v>0.0519545260804258</v>
       </c>
       <c r="H83" t="n">
         <v>0.692607915161854</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0036</v>
+        <v>0.00374</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0518943957100331</v>
+        <v>0.0519545260804258</v>
       </c>
       <c r="H84" t="n">
         <v>0.692607915161854</v>
@@ -7269,7 +7269,7 @@
         <v>0.21205</v>
       </c>
       <c r="G85" t="n">
-        <v>0.313867181685273</v>
+        <v>0.313894147093958</v>
       </c>
       <c r="H85" t="n">
         <v>1.46</v>
@@ -7280,7 +7280,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="M85" t="n">
         <v>0.62744</v>
@@ -7350,7 +7350,7 @@
         <v>0.21205</v>
       </c>
       <c r="G86" t="n">
-        <v>0.313867181685273</v>
+        <v>0.313894147093958</v>
       </c>
       <c r="H86" t="n">
         <v>1.46</v>
@@ -7361,7 +7361,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="M86" t="n">
         <v>0.62744</v>
@@ -7501,13 +7501,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.2875</v>
+        <v>0.2877</v>
       </c>
       <c r="G88" t="n">
-        <v>0.414496402546707</v>
+        <v>0.414261002082263</v>
       </c>
       <c r="H88" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I88" t="n">
         <v>1.2934</v>
@@ -7521,7 +7521,7 @@
         <v>0.8332000000000001</v>
       </c>
       <c r="N88" t="n">
-        <v>1.1576</v>
+        <v>1.15777</v>
       </c>
       <c r="O88" t="n">
         <v>1816385</v>
@@ -7578,13 +7578,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.2875</v>
+        <v>0.2877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.414496402546707</v>
+        <v>0.414261002082263</v>
       </c>
       <c r="H89" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I89" t="n">
         <v>1.2934</v>
@@ -7598,7 +7598,7 @@
         <v>0.8332000000000001</v>
       </c>
       <c r="N89" t="n">
-        <v>1.1576</v>
+        <v>1.15777</v>
       </c>
       <c r="O89" t="n">
         <v>1816385</v>
@@ -8128,7 +8128,7 @@
         <v>1.625</v>
       </c>
       <c r="G96" t="n">
-        <v>1.87405947225907</v>
+        <v>1.87414769780276</v>
       </c>
       <c r="H96" t="n">
         <v>7.4</v>
@@ -8785,10 +8785,10 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.00389</v>
+        <v>0.00397</v>
       </c>
       <c r="G104" t="n">
-        <v>0.027457809833886</v>
+        <v>0.0275366381661514</v>
       </c>
       <c r="H104" t="n">
         <v>0.692607915161854</v>
@@ -8799,7 +8799,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.0019</v>
+        <v>0.00199</v>
       </c>
       <c r="M104" t="n">
         <v>0.0312</v>
@@ -8866,10 +8866,10 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.00389</v>
+        <v>0.00397</v>
       </c>
       <c r="G105" t="n">
-        <v>0.027457809833886</v>
+        <v>0.0275366381661514</v>
       </c>
       <c r="H105" t="n">
         <v>0.692607915161854</v>
@@ -8880,7 +8880,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.0019</v>
+        <v>0.00199</v>
       </c>
       <c r="M105" t="n">
         <v>0.0312</v>
@@ -8950,7 +8950,7 @@
         <v>0.22085</v>
       </c>
       <c r="G106" t="n">
-        <v>0.33326915088496</v>
+        <v>0.333312478108311</v>
       </c>
       <c r="H106" t="n">
         <v>1.46</v>
@@ -8961,7 +8961,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M106" t="n">
         <v>0.7005</v>
@@ -9031,7 +9031,7 @@
         <v>0.22085</v>
       </c>
       <c r="G107" t="n">
-        <v>0.33326915088496</v>
+        <v>0.333312478108311</v>
       </c>
       <c r="H107" t="n">
         <v>1.46</v>
@@ -9042,7 +9042,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00205</v>
+        <v>0.0022</v>
       </c>
       <c r="M107" t="n">
         <v>0.7005</v>
@@ -9182,24 +9182,24 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.2805</v>
+        <v>0.28075</v>
       </c>
       <c r="G109" t="n">
-        <v>0.403728823066725</v>
+        <v>0.403496214346957</v>
       </c>
       <c r="H109" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I109" t="n">
-        <v>1.2625</v>
+        <v>1.2626</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00759</v>
+        <v>0.007</v>
       </c>
       <c r="M109" t="n">
-        <v>0.8286</v>
+        <v>0.82853</v>
       </c>
       <c r="N109" t="n">
         <v>1.034</v>
@@ -9259,24 +9259,24 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.2805</v>
+        <v>0.28075</v>
       </c>
       <c r="G110" t="n">
-        <v>0.403728823066725</v>
+        <v>0.403496214346957</v>
       </c>
       <c r="H110" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I110" t="n">
-        <v>1.2625</v>
+        <v>1.2626</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00759</v>
+        <v>0.007</v>
       </c>
       <c r="M110" t="n">
-        <v>0.8286</v>
+        <v>0.82853</v>
       </c>
       <c r="N110" t="n">
         <v>1.034</v>
@@ -9809,7 +9809,7 @@
         <v>1.2</v>
       </c>
       <c r="G117" t="n">
-        <v>1.73286055357287</v>
+        <v>1.73295038321735</v>
       </c>
       <c r="H117" t="n">
         <v>7.4</v>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.00793</v>
+        <v>0.007990000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0419024158691893</v>
+        <v>0.042012287910654</v>
       </c>
       <c r="H125" t="n">
         <v>0.729166088090186</v>
@@ -10480,10 +10480,10 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.00517</v>
+        <v>0.0055</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03485</v>
+        <v>0.03536</v>
       </c>
       <c r="N125" t="n">
         <v>0.07142</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.00793</v>
+        <v>0.007990000000000001</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0419024158691893</v>
+        <v>0.042012287910654</v>
       </c>
       <c r="H126" t="n">
         <v>0.729166088090186</v>
@@ -10561,10 +10561,10 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.00517</v>
+        <v>0.0055</v>
       </c>
       <c r="M126" t="n">
-        <v>0.03485</v>
+        <v>0.03536</v>
       </c>
       <c r="N126" t="n">
         <v>0.07142</v>
@@ -10631,7 +10631,7 @@
         <v>0.2811</v>
       </c>
       <c r="G127" t="n">
-        <v>0.382351678866061</v>
+        <v>0.38239574044913</v>
       </c>
       <c r="H127" t="n">
         <v>1.49</v>
@@ -10642,7 +10642,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.00368</v>
+        <v>0.00415</v>
       </c>
       <c r="M127" t="n">
         <v>0.7251</v>
@@ -10712,7 +10712,7 @@
         <v>0.2811</v>
       </c>
       <c r="G128" t="n">
-        <v>0.382351678866061</v>
+        <v>0.38239574044913</v>
       </c>
       <c r="H128" t="n">
         <v>1.49</v>
@@ -10723,7 +10723,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00368</v>
+        <v>0.00415</v>
       </c>
       <c r="M128" t="n">
         <v>0.7251</v>
@@ -10863,13 +10863,13 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.363</v>
+        <v>0.3625</v>
       </c>
       <c r="G130" t="n">
-        <v>0.47396151498311</v>
+        <v>0.473731743403685</v>
       </c>
       <c r="H130" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I130" t="n">
         <v>1.41925</v>
@@ -10877,13 +10877,13 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.01294</v>
+        <v>0.0123</v>
       </c>
       <c r="M130" t="n">
         <v>0.83235</v>
       </c>
       <c r="N130" t="n">
-        <v>1.1492</v>
+        <v>1.14936</v>
       </c>
       <c r="O130" t="n">
         <v>1816385</v>
@@ -10940,13 +10940,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.363</v>
+        <v>0.3625</v>
       </c>
       <c r="G131" t="n">
-        <v>0.47396151498311</v>
+        <v>0.473731743403685</v>
       </c>
       <c r="H131" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I131" t="n">
         <v>1.41925</v>
@@ -10954,13 +10954,13 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
-        <v>0.01294</v>
+        <v>0.0123</v>
       </c>
       <c r="M131" t="n">
         <v>0.83235</v>
       </c>
       <c r="N131" t="n">
-        <v>1.1492</v>
+        <v>1.14936</v>
       </c>
       <c r="O131" t="n">
         <v>1816385</v>
@@ -11490,7 +11490,7 @@
         <v>1.2</v>
       </c>
       <c r="G138" t="n">
-        <v>1.59258474467557</v>
+        <v>1.59267142240271</v>
       </c>
       <c r="H138" t="n">
         <v>7.4</v>
@@ -11733,13 +11733,13 @@
         <v>200</v>
       </c>
       <c r="G141" t="n">
-        <v>1132.43415106121</v>
+        <v>1056.03944403816</v>
       </c>
       <c r="H141" t="n">
-        <v>12097.6149126112</v>
+        <v>9678</v>
       </c>
       <c r="I141" t="n">
-        <v>8877.9</v>
+        <v>7760.64724</v>
       </c>
       <c r="J141" t="n">
         <v>23.728813559322</v>
@@ -11818,13 +11818,13 @@
         <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>1132.43415106121</v>
+        <v>1056.03944403816</v>
       </c>
       <c r="H142" t="n">
-        <v>12097.6149126112</v>
+        <v>9678</v>
       </c>
       <c r="I142" t="n">
-        <v>8877.9</v>
+        <v>7760.64724</v>
       </c>
       <c r="J142" t="n">
         <v>23.728813559322</v>
@@ -11903,13 +11903,13 @@
         <v>200</v>
       </c>
       <c r="G143" t="n">
-        <v>1132.43415106121</v>
+        <v>1056.03944403816</v>
       </c>
       <c r="H143" t="n">
-        <v>12097.6149126112</v>
+        <v>9678</v>
       </c>
       <c r="I143" t="n">
-        <v>8877.9</v>
+        <v>7760.64724</v>
       </c>
       <c r="J143" t="n">
         <v>23.728813559322</v>
@@ -11988,13 +11988,13 @@
         <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>1132.43415106121</v>
+        <v>1056.03944403816</v>
       </c>
       <c r="H144" t="n">
-        <v>12097.6149126112</v>
+        <v>9678</v>
       </c>
       <c r="I144" t="n">
-        <v>8877.9</v>
+        <v>7760.64724</v>
       </c>
       <c r="J144" t="n">
         <v>23.728813559322</v>
@@ -12147,10 +12147,10 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.01125</v>
+        <v>0.01166</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0498718014202676</v>
+        <v>0.0499990800868748</v>
       </c>
       <c r="H146" t="n">
         <v>0.729166088090186</v>
@@ -12161,7 +12161,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>0.00746</v>
+        <v>0.00788</v>
       </c>
       <c r="M146" t="n">
         <v>0.05754</v>
@@ -12228,10 +12228,10 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.01125</v>
+        <v>0.01166</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0498718014202676</v>
+        <v>0.0499990800868748</v>
       </c>
       <c r="H147" t="n">
         <v>0.729166088090186</v>
@@ -12242,7 +12242,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>0.00746</v>
+        <v>0.00788</v>
       </c>
       <c r="M147" t="n">
         <v>0.05754</v>
@@ -12312,7 +12312,7 @@
         <v>0.2811</v>
       </c>
       <c r="G148" t="n">
-        <v>0.393200831408434</v>
+        <v>0.393244892991503</v>
       </c>
       <c r="H148" t="n">
         <v>1.49</v>
@@ -12393,7 +12393,7 @@
         <v>0.2811</v>
       </c>
       <c r="G149" t="n">
-        <v>0.393200831408434</v>
+        <v>0.393244892991503</v>
       </c>
       <c r="H149" t="n">
         <v>1.49</v>
@@ -12547,10 +12547,10 @@
         <v>0.33</v>
       </c>
       <c r="G151" t="n">
-        <v>0.494486938711924</v>
+        <v>0.494470726454532</v>
       </c>
       <c r="H151" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I151" t="n">
         <v>1.41925</v>
@@ -12624,10 +12624,10 @@
         <v>0.33</v>
       </c>
       <c r="G152" t="n">
-        <v>0.494486938711924</v>
+        <v>0.494470726454532</v>
       </c>
       <c r="H152" t="n">
-        <v>2.912</v>
+        <v>2.9121</v>
       </c>
       <c r="I152" t="n">
         <v>1.41925</v>
@@ -13414,10 +13414,10 @@
         <v>200</v>
       </c>
       <c r="G162" t="n">
-        <v>769.510980582343</v>
+        <v>689.023699968773</v>
       </c>
       <c r="H162" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I162" t="n">
         <v>3540</v>
@@ -13499,10 +13499,10 @@
         <v>200</v>
       </c>
       <c r="G163" t="n">
-        <v>769.510980582343</v>
+        <v>689.023699968773</v>
       </c>
       <c r="H163" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I163" t="n">
         <v>3540</v>
@@ -13584,10 +13584,10 @@
         <v>200</v>
       </c>
       <c r="G164" t="n">
-        <v>769.510980582343</v>
+        <v>689.023699968773</v>
       </c>
       <c r="H164" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I164" t="n">
         <v>3540</v>
@@ -13669,10 +13669,10 @@
         <v>200</v>
       </c>
       <c r="G165" t="n">
-        <v>769.510980582343</v>
+        <v>689.023699968773</v>
       </c>
       <c r="H165" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I165" t="n">
         <v>3540</v>
@@ -13831,7 +13831,7 @@
         <v>0.01586</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0410788764562256</v>
+        <v>0.0412041601550938</v>
       </c>
       <c r="H167" t="n">
         <v>0.729166088090186</v>
@@ -13912,7 +13912,7 @@
         <v>0.01586</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0410788764562256</v>
+        <v>0.0412041601550938</v>
       </c>
       <c r="H168" t="n">
         <v>0.729166088090186</v>
@@ -13993,7 +13993,7 @@
         <v>0.2265</v>
       </c>
       <c r="G169" t="n">
-        <v>0.371201624151308</v>
+        <v>0.371267747649656</v>
       </c>
       <c r="H169" t="n">
         <v>1.49</v>
@@ -14074,7 +14074,7 @@
         <v>0.2265</v>
       </c>
       <c r="G170" t="n">
-        <v>0.371201624151308</v>
+        <v>0.371267747649656</v>
       </c>
       <c r="H170" t="n">
         <v>1.49</v>
@@ -14228,7 +14228,7 @@
         <v>0.3175</v>
       </c>
       <c r="G172" t="n">
-        <v>0.443250660034751</v>
+        <v>0.443242934900745</v>
       </c>
       <c r="H172" t="n">
         <v>2.54</v>
@@ -14305,7 +14305,7 @@
         <v>0.3175</v>
       </c>
       <c r="G173" t="n">
-        <v>0.443250660034751</v>
+        <v>0.443242934900745</v>
       </c>
       <c r="H173" t="n">
         <v>2.54</v>
@@ -15095,10 +15095,10 @@
         <v>210</v>
       </c>
       <c r="G183" t="n">
-        <v>787.992998411113</v>
+        <v>706.042312695478</v>
       </c>
       <c r="H183" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I183" t="n">
         <v>3600</v>
@@ -15180,10 +15180,10 @@
         <v>210</v>
       </c>
       <c r="G184" t="n">
-        <v>787.992998411113</v>
+        <v>706.042312695478</v>
       </c>
       <c r="H184" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I184" t="n">
         <v>3600</v>
@@ -15265,10 +15265,10 @@
         <v>210</v>
       </c>
       <c r="G185" t="n">
-        <v>787.992998411113</v>
+        <v>706.042312695478</v>
       </c>
       <c r="H185" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I185" t="n">
         <v>3600</v>
@@ -15350,10 +15350,10 @@
         <v>210</v>
       </c>
       <c r="G186" t="n">
-        <v>787.992998411113</v>
+        <v>706.042312695478</v>
       </c>
       <c r="H186" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I186" t="n">
         <v>3600</v>
@@ -15512,7 +15512,7 @@
         <v>0.01533</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0415246470568621</v>
+        <v>0.0416001475099342</v>
       </c>
       <c r="H188" t="n">
         <v>0.729166088090186</v>
@@ -15593,7 +15593,7 @@
         <v>0.01533</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0415246470568621</v>
+        <v>0.0416001475099342</v>
       </c>
       <c r="H189" t="n">
         <v>0.729166088090186</v>
@@ -15674,7 +15674,7 @@
         <v>0.176</v>
       </c>
       <c r="G190" t="n">
-        <v>0.31766097153104</v>
+        <v>0.317713195391502</v>
       </c>
       <c r="H190" t="n">
         <v>1.49</v>
@@ -15755,7 +15755,7 @@
         <v>0.176</v>
       </c>
       <c r="G191" t="n">
-        <v>0.31766097153104</v>
+        <v>0.317713195391502</v>
       </c>
       <c r="H191" t="n">
         <v>1.49</v>
@@ -15909,7 +15909,7 @@
         <v>0.21</v>
       </c>
       <c r="G193" t="n">
-        <v>0.383435237023537</v>
+        <v>0.383420631637202</v>
       </c>
       <c r="H193" t="n">
         <v>2.54</v>
@@ -15986,7 +15986,7 @@
         <v>0.21</v>
       </c>
       <c r="G194" t="n">
-        <v>0.383435237023537</v>
+        <v>0.383420631637202</v>
       </c>
       <c r="H194" t="n">
         <v>2.54</v>
@@ -16776,10 +16776,10 @@
         <v>200</v>
       </c>
       <c r="G204" t="n">
-        <v>798.289165048356</v>
+        <v>714.82087404169</v>
       </c>
       <c r="H204" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I204" t="n">
         <v>3660</v>
@@ -16861,10 +16861,10 @@
         <v>200</v>
       </c>
       <c r="G205" t="n">
-        <v>798.289165048356</v>
+        <v>714.82087404169</v>
       </c>
       <c r="H205" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I205" t="n">
         <v>3660</v>
@@ -16946,10 +16946,10 @@
         <v>200</v>
       </c>
       <c r="G206" t="n">
-        <v>798.289165048356</v>
+        <v>714.82087404169</v>
       </c>
       <c r="H206" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I206" t="n">
         <v>3660</v>
@@ -17031,10 +17031,10 @@
         <v>200</v>
       </c>
       <c r="G207" t="n">
-        <v>798.289165048356</v>
+        <v>714.82087404169</v>
       </c>
       <c r="H207" t="n">
-        <v>12097.6149126112</v>
+        <v>7900</v>
       </c>
       <c r="I207" t="n">
         <v>3660</v>
@@ -17193,7 +17193,7 @@
         <v>0.01278</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0398213841887458</v>
+        <v>0.0398739614786237</v>
       </c>
       <c r="H209" t="n">
         <v>0.729166088090186</v>
@@ -17274,7 +17274,7 @@
         <v>0.01278</v>
       </c>
       <c r="G210" t="n">
-        <v>0.0398213841887458</v>
+        <v>0.0398739614786237</v>
       </c>
       <c r="H210" t="n">
         <v>0.729166088090186</v>
@@ -17355,7 +17355,7 @@
         <v>0.177</v>
       </c>
       <c r="G211" t="n">
-        <v>0.311250017015841</v>
+        <v>0.311284029471916</v>
       </c>
       <c r="H211" t="n">
         <v>1.49</v>
@@ -17436,7 +17436,7 @@
         <v>0.177</v>
       </c>
       <c r="G212" t="n">
-        <v>0.311250017015841</v>
+        <v>0.311284029471916</v>
       </c>
       <c r="H212" t="n">
         <v>1.49</v>
@@ -18026,6 +18026,1687 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.4192</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.4803</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="G221" t="n">
+        <v>21.554977131</v>
+      </c>
+      <c r="H221" t="n">
+        <v>120</v>
+      </c>
+      <c r="I221" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M221" t="n">
+        <v>28.04</v>
+      </c>
+      <c r="N221" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.6315625</v>
+      </c>
+      <c r="H222" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I222" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2.768</v>
+      </c>
+      <c r="N222" t="n">
+        <v>4.766</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.0154074074074074</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.02064</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.0154074074074074</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.02064</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.0339</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>150</v>
+      </c>
+      <c r="G225" t="n">
+        <v>645.339392560209</v>
+      </c>
+      <c r="H225" t="n">
+        <v>7590.32719825127</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3813.2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>20.3703703703704</v>
+      </c>
+      <c r="K225" t="n">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L225" t="n">
+        <v>270</v>
+      </c>
+      <c r="M225" t="n">
+        <v>908.4</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2099.88</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>150</v>
+      </c>
+      <c r="G226" t="n">
+        <v>645.339392560209</v>
+      </c>
+      <c r="H226" t="n">
+        <v>7590.32719825127</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3813.2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>20.3703703703704</v>
+      </c>
+      <c r="K226" t="n">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L226" t="n">
+        <v>270</v>
+      </c>
+      <c r="M226" t="n">
+        <v>908.4</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2099.88</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>150</v>
+      </c>
+      <c r="G227" t="n">
+        <v>645.339392560209</v>
+      </c>
+      <c r="H227" t="n">
+        <v>7590.32719825127</v>
+      </c>
+      <c r="I227" t="n">
+        <v>3813.2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>20.3703703703704</v>
+      </c>
+      <c r="K227" t="n">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L227" t="n">
+        <v>270</v>
+      </c>
+      <c r="M227" t="n">
+        <v>908.4</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2099.88</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>150</v>
+      </c>
+      <c r="G228" t="n">
+        <v>645.339392560209</v>
+      </c>
+      <c r="H228" t="n">
+        <v>7590.32719825127</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3813.2</v>
+      </c>
+      <c r="J228" t="n">
+        <v>20.3703703703704</v>
+      </c>
+      <c r="K228" t="n">
+        <v>40.7407407407407</v>
+      </c>
+      <c r="L228" t="n">
+        <v>270</v>
+      </c>
+      <c r="M228" t="n">
+        <v>908.4</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2099.88</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="G229" t="n">
+        <v>97.08799999999999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>103</v>
+      </c>
+      <c r="I229" t="n">
+        <v>103</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>94.44</v>
+      </c>
+      <c r="M229" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="N229" t="n">
+        <v>103</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.00817</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0286308175626718</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.03337</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.09482</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.00817</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.0286308175626718</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.1234</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.008529999999999999</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.03337</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.09482</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.286191436879324</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.9156</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.53584</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.90908</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.286191436879324</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.9156</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.53584</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.90908</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G234" t="n">
+        <v>6.1524</v>
+      </c>
+      <c r="H234" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I234" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="M234" t="n">
+        <v>6.70625</v>
+      </c>
+      <c r="N234" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.317703703703704</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.0688</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.93344</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.317703703703704</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.0688</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.5616</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0.93344</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.478888888888889</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.7632</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1.1336</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.478888888888889</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.7632</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1.1336</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.0606666666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.2246</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.09972</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.18978</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Oroua at U/S Feilding STP</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.0606666666666667</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.2246</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.09972</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.18978</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1816385</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5539997</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Mana_12b</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
+++ b/state_results/Rivers/OrouaatUSFeildingSTP_c14933bc09.xlsx
@@ -570,10 +570,10 @@
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.79563556661217</v>
+        <v>1.8404269457699</v>
       </c>
       <c r="H2" t="n">
-        <v>7.37105823109917</v>
+        <v>9.20750477656606</v>
       </c>
       <c r="I2" t="n">
         <v>4.505</v>
@@ -2020,10 +2020,10 @@
         <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>1.79141995886277</v>
+        <v>1.83412801805968</v>
       </c>
       <c r="H20" t="n">
-        <v>7.37105823109917</v>
+        <v>9.20750477656606</v>
       </c>
       <c r="I20" t="n">
         <v>4.415</v>
@@ -3470,10 +3470,10 @@
         <v>1.5</v>
       </c>
       <c r="G38" t="n">
-        <v>1.89335684957998</v>
+        <v>1.93416677281258</v>
       </c>
       <c r="H38" t="n">
-        <v>7.37105823109917</v>
+        <v>9.20750477656606</v>
       </c>
       <c r="I38" t="n">
         <v>4.325</v>
@@ -4920,10 +4920,10 @@
         <v>1.85</v>
       </c>
       <c r="G56" t="n">
-        <v>2.05311585452291</v>
+        <v>2.09303860551132</v>
       </c>
       <c r="H56" t="n">
-        <v>7.37105823109917</v>
+        <v>9.20750477656606</v>
       </c>
       <c r="I56" t="n">
         <v>5.06</v>
@@ -11733,13 +11733,13 @@
         <v>200</v>
       </c>
       <c r="G141" t="n">
-        <v>1056.03944403816</v>
+        <v>1125.27604924214</v>
       </c>
       <c r="H141" t="n">
-        <v>9678</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I141" t="n">
-        <v>7760.64724</v>
+        <v>8877.9</v>
       </c>
       <c r="J141" t="n">
         <v>23.728813559322</v>
@@ -11818,13 +11818,13 @@
         <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>1056.03944403816</v>
+        <v>1125.27604924214</v>
       </c>
       <c r="H142" t="n">
-        <v>9678</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I142" t="n">
-        <v>7760.64724</v>
+        <v>8877.9</v>
       </c>
       <c r="J142" t="n">
         <v>23.728813559322</v>
@@ -11903,13 +11903,13 @@
         <v>200</v>
       </c>
       <c r="G143" t="n">
-        <v>1056.03944403816</v>
+        <v>1125.27604924214</v>
       </c>
       <c r="H143" t="n">
-        <v>9678</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I143" t="n">
-        <v>7760.64724</v>
+        <v>8877.9</v>
       </c>
       <c r="J143" t="n">
         <v>23.728813559322</v>
@@ -11988,13 +11988,13 @@
         <v>200</v>
       </c>
       <c r="G144" t="n">
-        <v>1056.03944403816</v>
+        <v>1125.27604924214</v>
       </c>
       <c r="H144" t="n">
-        <v>9678</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I144" t="n">
-        <v>7760.64724</v>
+        <v>8877.9</v>
       </c>
       <c r="J144" t="n">
         <v>23.728813559322</v>
@@ -13414,10 +13414,10 @@
         <v>200</v>
       </c>
       <c r="G162" t="n">
-        <v>689.023699968773</v>
+        <v>761.969409022971</v>
       </c>
       <c r="H162" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I162" t="n">
         <v>3540</v>
@@ -13499,10 +13499,10 @@
         <v>200</v>
       </c>
       <c r="G163" t="n">
-        <v>689.023699968773</v>
+        <v>761.969409022971</v>
       </c>
       <c r="H163" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I163" t="n">
         <v>3540</v>
@@ -13584,10 +13584,10 @@
         <v>200</v>
       </c>
       <c r="G164" t="n">
-        <v>689.023699968773</v>
+        <v>761.969409022971</v>
       </c>
       <c r="H164" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I164" t="n">
         <v>3540</v>
@@ -13669,10 +13669,10 @@
         <v>200</v>
       </c>
       <c r="G165" t="n">
-        <v>689.023699968773</v>
+        <v>761.969409022971</v>
       </c>
       <c r="H165" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I165" t="n">
         <v>3540</v>
@@ -15095,10 +15095,10 @@
         <v>210</v>
       </c>
       <c r="G183" t="n">
-        <v>706.042312695478</v>
+        <v>780.3143073688429</v>
       </c>
       <c r="H183" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I183" t="n">
         <v>3600</v>
@@ -15180,10 +15180,10 @@
         <v>210</v>
       </c>
       <c r="G184" t="n">
-        <v>706.042312695478</v>
+        <v>780.3143073688429</v>
       </c>
       <c r="H184" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I184" t="n">
         <v>3600</v>
@@ -15265,10 +15265,10 @@
         <v>210</v>
       </c>
       <c r="G185" t="n">
-        <v>706.042312695478</v>
+        <v>780.3143073688429</v>
       </c>
       <c r="H185" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I185" t="n">
         <v>3600</v>
@@ -15350,10 +15350,10 @@
         <v>210</v>
       </c>
       <c r="G186" t="n">
-        <v>706.042312695478</v>
+        <v>780.3143073688429</v>
       </c>
       <c r="H186" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I186" t="n">
         <v>3600</v>
@@ -16776,10 +16776,10 @@
         <v>200</v>
       </c>
       <c r="G204" t="n">
-        <v>714.82087404169</v>
+        <v>790.468276023822</v>
       </c>
       <c r="H204" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I204" t="n">
         <v>3660</v>
@@ -16861,10 +16861,10 @@
         <v>200</v>
       </c>
       <c r="G205" t="n">
-        <v>714.82087404169</v>
+        <v>790.468276023822</v>
       </c>
       <c r="H205" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I205" t="n">
         <v>3660</v>
@@ -16946,10 +16946,10 @@
         <v>200</v>
       </c>
       <c r="G206" t="n">
-        <v>714.82087404169</v>
+        <v>790.468276023822</v>
       </c>
       <c r="H206" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I206" t="n">
         <v>3660</v>
@@ -17031,10 +17031,10 @@
         <v>200</v>
       </c>
       <c r="G207" t="n">
-        <v>714.82087404169</v>
+        <v>790.468276023822</v>
       </c>
       <c r="H207" t="n">
-        <v>7900</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I207" t="n">
         <v>3660</v>
@@ -18457,10 +18457,10 @@
         <v>150</v>
       </c>
       <c r="G225" t="n">
-        <v>645.339392560209</v>
+        <v>720.98679454234</v>
       </c>
       <c r="H225" t="n">
-        <v>7590.32719825127</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I225" t="n">
         <v>3813.2</v>
@@ -18542,10 +18542,10 @@
         <v>150</v>
       </c>
       <c r="G226" t="n">
-        <v>645.339392560209</v>
+        <v>720.98679454234</v>
       </c>
       <c r="H226" t="n">
-        <v>7590.32719825127</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I226" t="n">
         <v>3813.2</v>
@@ -18627,10 +18627,10 @@
         <v>150</v>
       </c>
       <c r="G227" t="n">
-        <v>645.339392560209</v>
+        <v>720.98679454234</v>
       </c>
       <c r="H227" t="n">
-        <v>7590.32719825127</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I227" t="n">
         <v>3813.2</v>
@@ -18712,10 +18712,10 @@
         <v>150</v>
       </c>
       <c r="G228" t="n">
-        <v>645.339392560209</v>
+        <v>720.98679454234</v>
       </c>
       <c r="H228" t="n">
-        <v>7590.32719825127</v>
+        <v>11675.2869052864</v>
       </c>
       <c r="I228" t="n">
         <v>3813.2</v>
